--- a/테이블 정리.xlsx
+++ b/테이블 정리.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27321"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="220" documentId="11_52C1C0E71D9BDD63A50257CAAED0F24FF9B660C3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C738893-61E7-4C70-9EA6-59797CC25086}"/>
+  <xr:revisionPtr revIDLastSave="239" documentId="11_52C1C0E71D9BDD63A50257CAAED0F24FF9B660C3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82A0B09A-18E1-4942-A635-29F547BF1401}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="32657" windowHeight="15085" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="153">
   <si>
     <t>Client</t>
   </si>
@@ -366,6 +366,9 @@
     <t>NoticeContent</t>
   </si>
   <si>
+    <t>NoticeImage</t>
+  </si>
+  <si>
     <t>NoticeDate</t>
   </si>
   <si>
@@ -375,6 +378,21 @@
     <t>NoticeCount</t>
   </si>
   <si>
+    <t>NoticeRef</t>
+  </si>
+  <si>
+    <t>NoticeRestep</t>
+  </si>
+  <si>
+    <t>NoticeRelevel</t>
+  </si>
+  <si>
+    <t>NoticeIp</t>
+  </si>
+  <si>
+    <t>NoticeStatus</t>
+  </si>
+  <si>
     <t>글번호</t>
   </si>
   <si>
@@ -387,6 +405,9 @@
     <t>글내용</t>
   </si>
   <si>
+    <t>이미지 파일의 경로</t>
+  </si>
+  <si>
     <t>작성날짜</t>
   </si>
   <si>
@@ -396,6 +417,21 @@
     <t>조회수</t>
   </si>
   <si>
+    <t>답글의 그룹번호</t>
+  </si>
+  <si>
+    <t>답글의 글순서</t>
+  </si>
+  <si>
+    <t>답글의 글깊이</t>
+  </si>
+  <si>
+    <t>클라이언트 IP 주소</t>
+  </si>
+  <si>
+    <t>글상태</t>
+  </si>
+  <si>
     <t>varchar2(1000)</t>
   </si>
   <si>
@@ -448,24 +484,6 @@
   </si>
   <si>
     <t>내용</t>
-  </si>
-  <si>
-    <t>이미지 파일의 경로</t>
-  </si>
-  <si>
-    <t>답글의 그룹번호</t>
-  </si>
-  <si>
-    <t>답글의 글순서</t>
-  </si>
-  <si>
-    <t>답글의 글깊이</t>
-  </si>
-  <si>
-    <t>클라이언트 IP 주소</t>
-  </si>
-  <si>
-    <t>글상태</t>
   </si>
   <si>
     <t>varchar2(500)</t>
@@ -1086,8 +1104,8 @@
   <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="B1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" customHeight="1"/>
@@ -1661,28 +1679,64 @@
       <c r="H41" s="4" t="s">
         <v>113</v>
       </c>
+      <c r="I41" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="42" spans="2:14">
       <c r="B42" s="4" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>120</v>
+        <v>126</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="2:14">
@@ -1694,13 +1748,19 @@
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="4" t="s">
-        <v>100</v>
-      </c>
+      <c r="F43" s="4"/>
       <c r="G43" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H43" s="4"/>
+      <c r="H43" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
     </row>
     <row r="44" spans="2:14">
       <c r="B44" s="4" t="s">
@@ -1713,152 +1773,181 @@
         <v>36</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>37</v>
       </c>
       <c r="H44" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I44" s="4" t="s">
         <v>30</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="2:14"/>
     <row r="46" spans="2:14">
       <c r="B46" s="2" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="2:14">
-      <c r="B47" t="s">
-        <v>123</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B47" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14">
+      <c r="B48" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D47" t="s">
+      <c r="G48" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E47" t="s">
+      <c r="H48" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F47" t="s">
+      <c r="I48" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G47" t="s">
+      <c r="J48" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H47" t="s">
+      <c r="K48" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="I47" t="s">
+      <c r="L48" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="J47" t="s">
+      <c r="M48" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="K47" t="s">
+      <c r="N48" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="L47" t="s">
-        <v>133</v>
-      </c>
-      <c r="M47" t="s">
-        <v>134</v>
-      </c>
-      <c r="N47" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14">
-      <c r="B48" t="s">
-        <v>114</v>
-      </c>
-      <c r="C48" t="s">
-        <v>136</v>
-      </c>
-      <c r="D48" t="s">
-        <v>137</v>
-      </c>
-      <c r="E48" t="s">
-        <v>138</v>
-      </c>
-      <c r="F48" t="s">
-        <v>139</v>
-      </c>
-      <c r="G48" t="s">
-        <v>118</v>
-      </c>
-      <c r="H48" t="s">
-        <v>119</v>
-      </c>
-      <c r="I48" t="s">
-        <v>120</v>
-      </c>
-      <c r="J48" t="s">
-        <v>140</v>
-      </c>
-      <c r="K48" t="s">
-        <v>141</v>
-      </c>
-      <c r="L48" t="s">
-        <v>142</v>
-      </c>
-      <c r="M48" t="s">
-        <v>143</v>
-      </c>
-      <c r="N48" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="49" spans="2:14">
-      <c r="B49" t="s">
+      <c r="B49" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="4" t="s">
         <v>66</v>
       </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
     </row>
     <row r="50" spans="2:14">
-      <c r="B50" t="s">
+      <c r="B50" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D50" t="s">
-        <v>145</v>
-      </c>
-      <c r="E50" t="s">
-        <v>146</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="D50" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K50" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L50" t="s">
+      <c r="L50" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M50" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N50" t="s">
+      <c r="N50" s="4" t="s">
         <v>38</v>
       </c>
     </row>

--- a/테이블 정리.xlsx
+++ b/테이블 정리.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27321"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="239" documentId="11_52C1C0E71D9BDD63A50257CAAED0F24FF9B660C3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82A0B09A-18E1-4942-A635-29F547BF1401}"/>
+  <xr:revisionPtr revIDLastSave="262" documentId="11_52C1C0E71D9BDD63A50257CAAED0F24FF9B660C3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9865B893-3D99-472E-BFF1-54D28A8600E4}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="32657" windowHeight="15085" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="159">
   <si>
     <t>Client</t>
   </si>
@@ -294,13 +294,31 @@
     <t>orderClientId</t>
   </si>
   <si>
-    <t>orderDate</t>
-  </si>
-  <si>
-    <t>orderStatus</t>
-  </si>
-  <si>
-    <t>orderCartId</t>
+    <t>orderProductId</t>
+  </si>
+  <si>
+    <t>orderCount</t>
+  </si>
+  <si>
+    <t>구매ID</t>
+  </si>
+  <si>
+    <t>구매자ID</t>
+  </si>
+  <si>
+    <t>Payment_table</t>
+  </si>
+  <si>
+    <t>PaymentId</t>
+  </si>
+  <si>
+    <t>PaymentClientId</t>
+  </si>
+  <si>
+    <t>PaymentDate</t>
+  </si>
+  <si>
+    <t>PaymentStatus</t>
   </si>
   <si>
     <t>orderSum</t>
@@ -312,13 +330,13 @@
     <t>orderContent</t>
   </si>
   <si>
-    <t>구매ID</t>
-  </si>
-  <si>
-    <t>구매자ID</t>
-  </si>
-  <si>
-    <t>구매일자</t>
+    <t>주문ID</t>
+  </si>
+  <si>
+    <t>주문자ID</t>
+  </si>
+  <si>
+    <t>주문일자</t>
   </si>
   <si>
     <t>배송상태</t>
@@ -559,7 +577,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -573,6 +591,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1102,10 +1123,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1" filterMode="1"/>
-  <dimension ref="B1:N67"/>
+  <dimension ref="B1:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" customHeight="1"/>
@@ -1423,7 +1444,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:5">
       <c r="B17" s="4" t="s">
         <v>72</v>
       </c>
@@ -1431,7 +1452,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:5">
       <c r="B18" s="4" t="s">
         <v>74</v>
       </c>
@@ -1439,13 +1460,13 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:5">
       <c r="B19" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:5">
       <c r="B20" s="4" t="s">
         <v>68</v>
       </c>
@@ -1453,13 +1474,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:9"/>
-    <row r="22" spans="2:9">
+    <row r="21" spans="2:5"/>
+    <row r="22" spans="2:5">
       <c r="B22" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:5">
       <c r="B23" s="4" t="s">
         <v>76</v>
       </c>
@@ -1473,7 +1494,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:5">
       <c r="B24" s="4" t="s">
         <v>80</v>
       </c>
@@ -1487,7 +1508,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:5">
       <c r="B25" s="4" t="s">
         <v>27</v>
       </c>
@@ -1499,7 +1520,7 @@
       </c>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:5">
       <c r="B26" s="4" t="s">
         <v>67</v>
       </c>
@@ -1513,13 +1534,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="2:9"/>
-    <row r="28" spans="2:9">
+    <row r="27" spans="2:5"/>
+    <row r="28" spans="2:5">
       <c r="B28" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:5">
       <c r="B29" s="4" t="s">
         <v>85</v>
       </c>
@@ -1532,62 +1553,34 @@
       <c r="E29" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F29" s="4" t="s">
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
       <c r="B31" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="4"/>
+      <c r="D31" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="E31" s="4"/>
-      <c r="F31" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="2:9">
+    </row>
+    <row r="32" spans="2:5">
       <c r="B32" s="4" t="s">
         <v>30</v>
       </c>
@@ -1595,369 +1588,466 @@
         <v>31</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+    </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>103</v>
+      <c r="B35" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="2:14">
       <c r="B36" s="4" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>105</v>
+        <v>93</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="2:14">
       <c r="B37" s="4" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>66</v>
+        <v>100</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="2:14">
       <c r="B38" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="2:14">
+      <c r="B39" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="D39" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="39" spans="2:14"/>
+      <c r="G39" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="40" spans="2:14">
-      <c r="B40" s="2" t="s">
-        <v>106</v>
-      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:14">
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="42" spans="2:14">
       <c r="B42" s="4" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="N42" s="4" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="2:14">
       <c r="B43" s="4" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
+        <v>111</v>
+      </c>
     </row>
     <row r="44" spans="2:14">
       <c r="B44" s="4" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14"/>
-    <row r="46" spans="2:14">
-      <c r="B46" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14">
+      <c r="B45" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14"/>
     <row r="47" spans="2:14">
-      <c r="B47" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="M47" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="N47" s="4" t="s">
-        <v>147</v>
+      <c r="B47" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="2:14">
       <c r="B48" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I48" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F48" s="4" t="s">
+      <c r="J48" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M48" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="N48" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="M48" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="N48" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="49" spans="2:14">
       <c r="B49" s="4" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
+        <v>127</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="50" spans="2:14">
       <c r="B50" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C51" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I51" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="J51" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14"/>
+    <row r="53" spans="2:14">
+      <c r="B53" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L54" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="M54" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="N54" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="B57" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G57" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H57" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="I57" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J50" s="4" t="s">
+      <c r="J57" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K50" s="4" t="s">
+      <c r="K57" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L50" s="4" t="s">
+      <c r="L57" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M50" s="4" t="s">
+      <c r="M57" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N50" s="4" t="s">
+      <c r="N57" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="2:14"/>
-    <row r="52" spans="2:14"/>
-    <row r="53" spans="2:14"/>
-    <row r="54" spans="2:14"/>
-    <row r="55" spans="2:14"/>
-    <row r="56" spans="2:14"/>
-    <row r="57" spans="2:14"/>
     <row r="58" spans="2:14"/>
     <row r="59" spans="2:14"/>
     <row r="60" spans="2:14"/>
@@ -1968,6 +2058,13 @@
     <row r="65"/>
     <row r="66"/>
     <row r="67"/>
+    <row r="68"/>
+    <row r="69"/>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
   </sheetData>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
